--- a/Test Data Driven/AI-Generated/Common/fillShippingInformationAndCompleteOrder.xlsx
+++ b/Test Data Driven/AI-Generated/Common/fillShippingInformationAndCompleteOrder.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,11 +446,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
   </cols>
@@ -495,148 +495,111 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>123 Maple Street</t>
+          <t> </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beverly Hills</t>
+          <t> </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t> </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t> </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>+1-310-555-0199</t>
+          <t> </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>California</t>
+          <t> </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>90210</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>123 Maple Street</t>
+          <t> </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beverly Hills</t>
+          <t> </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t> </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t> </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>+1-310-555-0199</t>
+          <t> </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>California</t>
+          <t> </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>90210</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>123 Maple Street</t>
+          <t> </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beverly Hills</t>
+          <t> </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t> </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t> </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>+1-310-555-0199</t>
+          <t> </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>California</t>
+          <t> </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>90210</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>123 Maple Street</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Beverly Hills</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Emily</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Johnson</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>+1-310-555-0199</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>90210</t>
+          <t> </t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/Common/fillShippingInformationAndCompleteOrder.xlsx
+++ b/Test Data Driven/AI-Generated/Common/fillShippingInformationAndCompleteOrder.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,11 +446,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
   </cols>
@@ -603,6 +603,154 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>123 Maple Street</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beverly Hills</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>+1-310-555-0199</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>90210</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>123 Maple Street</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Beverly Hills</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>+1-310-555-0199</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>90210</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>123 Maple Street</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Beverly Hills</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>+1-310-555-0199</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>90210</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>123 Maple Street</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Beverly Hills</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>+1-310-555-0199</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>90210</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test Data Driven/AI-Generated/Common/fillShippingInformationAndCompleteOrder.xlsx
+++ b/Test Data Driven/AI-Generated/Common/fillShippingInformationAndCompleteOrder.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,43 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>fgsdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ho chi minh</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>fdf</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>dfgs</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
